--- a/medicine/Pharmacie/Bétahistine/Bétahistine.xlsx
+++ b/medicine/Pharmacie/Bétahistine/Bétahistine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9tahistine</t>
+          <t>Bétahistine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bétahistine est une substance chimique ayant des propriétés vasodilatatrices cérébrales et périphériques, et qui est utilisée pour le traitement des vertiges (en particulier la maladie de Menière), commercialisée par les laboratoires Bouchara-Recordati avec la spécialité pharmaceutique Lectil, mais qui est largement diffusée en officine comme médicament générique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9tahistine</t>
+          <t>Bétahistine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il interagit avec plusieurs récepteurs à l'histamine, au niveau vasculaire et cérébral ainsi que labyrinthique, avec, pour conséquence, une augmentation du débit au niveau du vestibule et de la cochlée[2] et une diminution de la sensibilité de ce premier[3]. Il est ainsi agoniste H1 et antagoniste H3[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il interagit avec plusieurs récepteurs à l'histamine, au niveau vasculaire et cérébral ainsi que labyrinthique, avec, pour conséquence, une augmentation du débit au niveau du vestibule et de la cochlée et une diminution de la sensibilité de ce premier. Il est ainsi agoniste H1 et antagoniste H3.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9tahistine</t>
+          <t>Bétahistine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bétahistine est métabolisée en deux composants, l'aminoéthylpyridine et la hydroxyéthylpyridine, tous deux actifs sur le débit sanguin cochléaire[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bétahistine est métabolisée en deux composants, l'aminoéthylpyridine et la hydroxyéthylpyridine, tous deux actifs sur le débit sanguin cochléaire.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9tahistine</t>
+          <t>Bétahistine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est largement prescrit dans la maladie de Menière ou le vertige mais son efficacité reste discutée[6],[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est largement prescrit dans la maladie de Menière ou le vertige mais son efficacité reste discutée.
 </t>
         </is>
       </c>
